--- a/docs/Sucupira/Dados Cadastrais.xlsx
+++ b/docs/Sucupira/Dados Cadastrais.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioDL/Sucupira/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAA1CA8-3730-A948-BDC8-B005EB4AF59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1BA56F8-9E39-E34A-A074-76CC7898F59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="1180" windowWidth="23180" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do programa" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>Dados do Programa</t>
   </si>
@@ -137,15 +137,6 @@
     <t>Créditos em Disciplinas para Titulação</t>
   </si>
   <si>
-    <t>Créditos em Trabalhos de Conclusão para Titulação</t>
-  </si>
-  <si>
-    <t>Outros Créditos para Titulação</t>
-  </si>
-  <si>
-    <t>Equivalência Hora-Aula/Crédito</t>
-  </si>
-  <si>
     <t>Desenvolvimento Local</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
   </si>
   <si>
     <t>DESENVOLVIMENTO LOCAL</t>
-  </si>
-  <si>
-    <t>??????</t>
   </si>
   <si>
     <r>
@@ -248,13 +236,30 @@
     <t>31063012001R4</t>
   </si>
   <si>
-    <t>A linha de pesquisa Cadeias Produtivas Sustentáveis tem como norte o estudo dos sistemas produtivos, inclusive cooperativismo e associativismo, e a capacidade de identificar potenciais produtivos ainda latentes em territórios, comunidades e/ou localidades.
-Essa linha concentra estudos no desenvolvimento de soluções práticas para problemas socioambientais, sempre buscando o desenvolvimento local. Para tal, faz uso de pesquisas sobre cadeias produtivas que podem ser conceituadas a partir de um processo que envolve todas as etapas da produção de um bem ou serviço, desde o planejamento e design até a entrega ao consumidor e sua relação entre as diversas áreas de produção. Sistemas produtivos sustentáveis são aqueles em que há preocupação com o meio ambiente durante todo o processo, a fim de mitigar o impacto de cada ação.
-Há intervenção de várias formas, desde singelas como a diminuição dos custos de produção até a criação de valor de produtos ou subprodutos existentes e não valorizados, além de potenciais adormecidos, como emprego de tecnologias limpas.</t>
-  </si>
-  <si>
-    <t>A linha de pesquisa Gestão da Inovação e Empreendedorismo estuda a relação direta entre o empreendedorismo e o desenvolvimento socioeconômico e ambiental local. Para combater a pobreza e reduzir desigualdades, precisamos entender e aprimorar os processos de gestão de inovação, além de ampliar e apoiar o empreendedorismo local sustentável.
-A inovação é um processo amplo que acrescenta valor à atividade humana, incluindo aspectos tecnológicos, organizacionais e sociais, bem como marketing. Por isso, entendemos que o desenvolvimento econômico local está associado às inovações geradas por empreendedores diversos: individual, cooperado, corporativo, etc.</t>
+    <t>Por meio da temática desenvolvimento sustentável e trabalho busca-se compreender a complexa relação entre trabalho e desenvolvimento sustentável. Sabe-se que as questões ambientais, como as relacionadas ao trabalho, decorrente da atividade econômica, vêm assumindo novas configurações com a globalização da economia, em que se constata a dissolução das fronteiras políticas e econômicas, a degradação ambiental e a crise da sociedade do trabalho, bem como o aumento da desigualdade e da exclusão social. Essas questões conjunturais, todas interligadas, exigem reflexões e aprofundamentos e, também, ações que visem estimular o desenvolvimento das forças produtivas locais, de processos e serviços, por meio da inovação e do empreendedorismo. A formação de agentes capazes de identificar problemas da sociedade e buscar soluções ambientalmente adequadas e viáveis, proporciona a produção e a circulação local de riquezas e o aumento da renda, ao mesmo tempo em que assegura a conservação dinâmica dos recursos naturais, alinhados aos objetivos do desenvolvimento sustentável (ODS) da ONU.</t>
+  </si>
+  <si>
+    <t>Esta linha busca concentrar estudos no desenvolvimento de soluções práticas para o setor produtivo, visando a geração de renda, a redução das desigualdades para o desenvolvimento local sustentável. Para tal, fará uso de pesquisas no âmbito das cadeias produtivas, que pode ser conceituada a partir de um processo que envolve todas as etapas da produção de um bem ou serviço, desde o planejamento e o design até sua entrega ao consumidor e a sua relação entre as diferentes áreas de produção. Sistemas produtivos sustentáveis são aqueles em que, durante todo o processo, há sempre uma preocupação com o meio ambiente, com vistas a mitigar o impacto de cada ação e ao mesmo tempo são aqueles que podem gerar riquezas para o setor produtivo. Há intervenção de diferentes formas, desde as mais simples, como a diminuição dos custos de produção, e das condições adversas do trabalho, até a agregação de valor a produtos ou subprodutos existentes com o emprego de tecnologias limpas. O estudo dos sistemas produtivos, incluindo aspectos relacionados ao cooperativismo e associativismo, e a capacidade de identificar potenciais produtivos, ainda latentes, nos territórios, comunidades e/ou localidades é o elemento norteador desta linha de pesquisa, conforme preconiza os objetivos do desenvolvimento sustentável da ONU”.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Esta linha visa estudar a relação entre o estado e a sociedade e seu papel para o desenvolvimento local. Para além de um Estado de Direito, o Programa de Mestrado e Doutorado em Desenvolvimento Local (PGDL) trabalha com a ideia de Estado Social de Direito, sistema jurídico que viabiliza a proteção de direitos e garantias individuais, como também o acesso a todos a direitos como saúde, educação, trabalho digno, habitação, meio ambiente equilibrado, entre outros, como direitos de todo cidadão. Compreender a relação entre o Estado e a Sociedade para o desenvolvimento sustentável é essencial para a melhoria de vida das diversas populações e para tal, deve-se considerar todas as dimensões do assentamento humano em um determinado ambiente, para que o arranjo social e econômico que nele se constitua seja justo, equilibrado e duradouro, destacando os seguintes aspectos: econômico, social, político, cultural, ético, ambiental, pedagógico, metodológico, gênero e território, conforme preconiza as metas dos objetivos do </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>desenvolvimento sustentável da ONU, em sua Agenda 2030</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta linha tem por objetivo “estudar a relação direta entre o empreendedorismo e o desenvolvimento socioeconômico e ambiental local. Compreende-se que o desenvolvimento econômico local está associado às inovações geradas por diferentes empreendedores, como empreendedor individual, cooperado, corporativo, dentre outros. Quando nos referimos à inovação, devemos entendê-la como um processo amplo, que acrescenta valor à atividade humana, incluindo aspectos tecnológicos, marketing, organizacionais e sociais. Entender e aprimorar os processos de gestão de inovação e conhecimento para ampliar e apoiar o empreendedorismo local sustentável é de grande relevância para uma estratégia proativa de combate à pobreza e redução das desigualdades, alinhada às metas da Agenda 2030 da ONU, em seus 17 objetivos para o desenvolvimento sustentável”. Percebe-se pela descrição da linha sua articulação com a área de concentração, objetivos e missão do PPGDL, assim como com os demais fatores, como disciplinas eletivas, projetos de pesquisa em andamento, os TCCs e demais produções intelectuais gerada pelos corpos discentes e docente. </t>
+  </si>
+  <si>
+    <t>Créditos em Atividades Complementares</t>
   </si>
 </sst>
 </file>
@@ -386,7 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +445,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -460,17 +465,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -488,22 +482,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -516,17 +495,67 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -590,7 +619,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -642,7 +671,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -867,8 +896,8 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>41</v>
+      <c r="B2" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -876,62 +905,62 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>40</v>
+      <c r="B4" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>39</v>
+      <c r="B5" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>42</v>
+      <c r="B6" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>43</v>
+      <c r="B7" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>44</v>
+      <c r="B8" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>45</v>
+      <c r="B9" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -966,7 +995,7 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="13">
         <v>21041020</v>
       </c>
     </row>
@@ -974,8 +1003,8 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>46</v>
+      <c r="B3" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -983,7 +1012,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -991,7 +1020,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1014,36 +1043,36 @@
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>56</v>
+      <c r="B8" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="13" t="s">
-        <v>57</v>
+      <c r="B9" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="13" t="s">
-        <v>58</v>
+      <c r="B10" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>55</v>
+      <c r="B11" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>49</v>
+      <c r="B12" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1060,9 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1087,20 +1114,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>54</v>
+    <row r="2" spans="1:4" ht="320" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
@@ -1118,65 +1145,66 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="58.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="15" style="40" customWidth="1"/>
+    <col min="4" max="4" width="15" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:4" ht="388" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4" ht="404" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4" ht="404" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="24"/>
+      <c r="B4" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1188,42 +1216,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="26"/>
+    <col min="1" max="1" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1234,71 +1262,49 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="56.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="23">
+        <v>24</v>
+      </c>
+      <c r="C2" s="24">
         <v>36</v>
       </c>
-      <c r="C2" s="31">
-        <v>38</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="8">
-        <v>4</v>
-      </c>
-      <c r="C3" s="32">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="8">
-        <v>16</v>
-      </c>
-      <c r="C4" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="8">
-        <v>15</v>
-      </c>
-      <c r="C5" s="32">
-        <v>15</v>
+      <c r="A3" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="26">
+        <v>8</v>
+      </c>
+      <c r="C3" s="27">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
